--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_HoangCongDinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_HoangCongDinh.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -231,13 +231,13 @@
     <t>KS</t>
   </si>
   <si>
-    <t>Thiết bị lỗi nguồn, nổ linh kiện</t>
-  </si>
-  <si>
     <t>Hoàng Công Định</t>
   </si>
   <si>
     <t>Wetrack 2</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa mạch</t>
   </si>
 </sst>
 </file>
@@ -607,9 +607,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,21 +644,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -953,7 +953,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -985,43 +985,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1066,58 +1066,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -1142,23 +1142,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,9 +1168,11 @@
       <c r="B6" s="37">
         <v>44334</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44337</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="39">
         <v>358735070636831</v>
@@ -1182,7 +1184,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="51"/>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6" s="55"/>
       <c r="L6" s="40"/>
@@ -1200,11 +1202,11 @@
         <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1219,9 +1221,11 @@
       <c r="B7" s="37">
         <v>44334</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44337</v>
+      </c>
       <c r="D7" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="39">
         <v>358735070636658</v>
@@ -1232,18 +1236,30 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="54"/>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="55"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1272,7 +1288,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1301,7 +1317,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1330,7 +1346,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1359,7 +1375,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1404,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1419,7 +1435,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1448,7 +1464,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1477,7 +1493,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1506,7 +1522,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1657,7 +1673,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1902,7 +1918,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -1966,7 +1982,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2158,7 +2174,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2276,7 +2292,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -2737,13 +2753,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2755,6 +2764,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2798,43 +2814,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2879,58 +2895,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -2955,23 +2971,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2997,7 +3013,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3028,7 +3044,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3057,7 +3073,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3086,7 +3102,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3115,7 +3131,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3144,7 +3160,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3173,7 +3189,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3204,7 +3220,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3233,7 +3249,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3262,7 +3278,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3291,7 +3307,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4522,6 +4538,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4533,13 +4556,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_HoangCongDinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_HoangCongDinh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wetrack 2" sheetId="28" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -595,9 +595,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,6 +604,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -619,31 +640,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -952,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -985,43 +982,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1066,99 +1063,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="56" t="s">
+      <c r="J5" s="57"/>
+      <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,7 +1183,7 @@
       <c r="J6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="55"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
         <v>64</v>
@@ -1205,14 +1202,14 @@
         <v>30</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
+      <c r="T6" s="56"/>
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="57"/>
+      <c r="W6" s="56"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1239,7 +1236,7 @@
       <c r="J7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
         <v>64</v>
@@ -1258,12 +1255,12 @@
         <v>30</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="59"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="57"/>
+      <c r="W7" s="56"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1287,12 +1284,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="59"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="57"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1316,12 +1313,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="59"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="57"/>
+      <c r="W9" s="56"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1345,12 +1342,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="59"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="57"/>
+      <c r="W10" s="56"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1374,12 +1371,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="59"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="57"/>
+      <c r="W11" s="56"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1403,14 +1400,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="58" t="s">
+      <c r="T12" s="56"/>
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="57"/>
+      <c r="W12" s="56"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1434,12 +1431,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="59"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="56"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1463,12 +1460,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="59"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="57"/>
+      <c r="W14" s="56"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1493,11 +1490,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="57"/>
+      <c r="W15" s="56"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1522,11 +1519,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="57"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1551,9 +1548,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="57"/>
+      <c r="U17" s="56"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="57"/>
+      <c r="W17" s="56"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1605,7 +1602,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="56" t="s">
+      <c r="U19" s="55" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1786,7 +1783,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="56" t="s">
+      <c r="U25" s="55" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -2753,6 +2750,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2764,13 +2768,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2781,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2814,43 +2811,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2895,58 +2892,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -2971,49 +2968,71 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44334</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44337</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="39">
+        <v>358735070636831</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="38"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="54"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3025,26 +3044,48 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="37">
+        <v>44334</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44337</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="39">
+        <v>358735070636658</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="38"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K7" s="54"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3073,7 +3114,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3102,7 +3143,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3131,7 +3172,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3160,7 +3201,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3189,7 +3230,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3220,7 +3261,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3249,7 +3290,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3278,7 +3319,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3307,7 +3348,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3458,7 +3499,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3767,7 +3808,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -3959,7 +4000,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4077,7 +4118,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -4538,13 +4579,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4556,6 +4590,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
